--- a/2022/SAMSUNG/AUGUST/25.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/25.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -3543,6 +3543,30 @@
     <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="42" fillId="44" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="42" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="42" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3642,6 +3666,57 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3687,57 +3762,6 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3770,30 +3794,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="42" fillId="44" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="42" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="42" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4269,33 +4269,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
+      <c r="A1" s="408"/>
+      <c r="B1" s="408"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="401"/>
-      <c r="B2" s="398" t="s">
+      <c r="A2" s="409"/>
+      <c r="B2" s="406" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="401"/>
-      <c r="B3" s="399" t="s">
+      <c r="A3" s="409"/>
+      <c r="B3" s="407" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="399"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
+      <c r="C3" s="407"/>
+      <c r="D3" s="407"/>
+      <c r="E3" s="407"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="401"/>
+      <c r="A4" s="409"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="401"/>
+      <c r="A5" s="409"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="401"/>
+      <c r="A6" s="409"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4343,7 +4343,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="401"/>
+      <c r="A7" s="409"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="401"/>
+      <c r="A8" s="409"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="401"/>
+      <c r="A9" s="409"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="401"/>
+      <c r="A10" s="409"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="401"/>
+      <c r="A11" s="409"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4438,7 +4438,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="401"/>
+      <c r="A12" s="409"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="401"/>
+      <c r="A13" s="409"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="401"/>
+      <c r="A14" s="409"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="401"/>
+      <c r="A15" s="409"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="401"/>
+      <c r="A16" s="409"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4527,7 +4527,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="401"/>
+      <c r="A17" s="409"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4540,7 +4540,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="401"/>
+      <c r="A18" s="409"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4553,7 +4553,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="401"/>
+      <c r="A19" s="409"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4566,7 +4566,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="401"/>
+      <c r="A20" s="409"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4579,7 +4579,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="401"/>
+      <c r="A21" s="409"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4592,7 +4592,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="401"/>
+      <c r="A22" s="409"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4605,7 +4605,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="401"/>
+      <c r="A23" s="409"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4618,7 +4618,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="401"/>
+      <c r="A24" s="409"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4631,7 +4631,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="401"/>
+      <c r="A25" s="409"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4644,7 +4644,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="401"/>
+      <c r="A26" s="409"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4657,7 +4657,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="401"/>
+      <c r="A27" s="409"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4670,7 +4670,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="401"/>
+      <c r="A28" s="409"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4683,7 +4683,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="401"/>
+      <c r="A29" s="409"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4696,7 +4696,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="401"/>
+      <c r="A30" s="409"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4709,7 +4709,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="401"/>
+      <c r="A31" s="409"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4722,7 +4722,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="401"/>
+      <c r="A32" s="409"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4735,7 +4735,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="401"/>
+      <c r="A33" s="409"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4748,7 +4748,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="401"/>
+      <c r="A34" s="409"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4761,7 +4761,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="401"/>
+      <c r="A35" s="409"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4774,7 +4774,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="401"/>
+      <c r="A36" s="409"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4787,7 +4787,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="401"/>
+      <c r="A37" s="409"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4800,7 +4800,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="401"/>
+      <c r="A38" s="409"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4813,7 +4813,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="401"/>
+      <c r="A39" s="409"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4826,7 +4826,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="401"/>
+      <c r="A40" s="409"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4839,7 +4839,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="401"/>
+      <c r="A41" s="409"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4852,7 +4852,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="401"/>
+      <c r="A42" s="409"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4865,7 +4865,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="401"/>
+      <c r="A43" s="409"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4878,7 +4878,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="401"/>
+      <c r="A44" s="409"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4891,7 +4891,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="401"/>
+      <c r="A45" s="409"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4904,7 +4904,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="401"/>
+      <c r="A46" s="409"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4917,7 +4917,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="401"/>
+      <c r="A47" s="409"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4930,7 +4930,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="401"/>
+      <c r="A48" s="409"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4943,7 +4943,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="401"/>
+      <c r="A49" s="409"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4956,7 +4956,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="401"/>
+      <c r="A50" s="409"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4969,7 +4969,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="401"/>
+      <c r="A51" s="409"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4982,7 +4982,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="401"/>
+      <c r="A52" s="409"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4995,7 +4995,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="401"/>
+      <c r="A53" s="409"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -5008,7 +5008,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="401"/>
+      <c r="A54" s="409"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -5021,7 +5021,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="401"/>
+      <c r="A55" s="409"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -5033,7 +5033,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="401"/>
+      <c r="A56" s="409"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -5045,7 +5045,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="401"/>
+      <c r="A57" s="409"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -5057,7 +5057,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="401"/>
+      <c r="A58" s="409"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -5069,7 +5069,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="401"/>
+      <c r="A59" s="409"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -5081,7 +5081,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="401"/>
+      <c r="A60" s="409"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -5093,7 +5093,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="401"/>
+      <c r="A61" s="409"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5105,7 +5105,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="401"/>
+      <c r="A62" s="409"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5117,7 +5117,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="401"/>
+      <c r="A63" s="409"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5129,7 +5129,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="401"/>
+      <c r="A64" s="409"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5141,7 +5141,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="401"/>
+      <c r="A65" s="409"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5153,7 +5153,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="401"/>
+      <c r="A66" s="409"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5165,7 +5165,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="401"/>
+      <c r="A67" s="409"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5177,7 +5177,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="401"/>
+      <c r="A68" s="409"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5189,7 +5189,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="401"/>
+      <c r="A69" s="409"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5201,7 +5201,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="401"/>
+      <c r="A70" s="409"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5213,7 +5213,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="401"/>
+      <c r="A71" s="409"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5225,7 +5225,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="401"/>
+      <c r="A72" s="409"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5237,7 +5237,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="401"/>
+      <c r="A73" s="409"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5249,7 +5249,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="401"/>
+      <c r="A74" s="409"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5261,7 +5261,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="401"/>
+      <c r="A75" s="409"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5273,7 +5273,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="401"/>
+      <c r="A76" s="409"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5285,7 +5285,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="401"/>
+      <c r="A77" s="409"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5297,7 +5297,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="401"/>
+      <c r="A78" s="409"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5309,7 +5309,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="401"/>
+      <c r="A79" s="409"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5321,7 +5321,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="401"/>
+      <c r="A80" s="409"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5333,7 +5333,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="401"/>
+      <c r="A81" s="409"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5345,7 +5345,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="401"/>
+      <c r="A82" s="409"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5357,7 +5357,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="401"/>
+      <c r="A83" s="409"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5414,33 +5414,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="400"/>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="400"/>
-      <c r="F1" s="400"/>
+      <c r="A1" s="408"/>
+      <c r="B1" s="408"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="401"/>
-      <c r="B2" s="398" t="s">
+      <c r="A2" s="409"/>
+      <c r="B2" s="406" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="401"/>
-      <c r="B3" s="399" t="s">
+      <c r="A3" s="409"/>
+      <c r="B3" s="407" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="399"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
+      <c r="C3" s="407"/>
+      <c r="D3" s="407"/>
+      <c r="E3" s="407"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="401"/>
+      <c r="A4" s="409"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="401"/>
+      <c r="A5" s="409"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="401"/>
+      <c r="A6" s="409"/>
       <c r="B6" s="26" t="s">
         <v>207</v>
       </c>
@@ -5494,7 +5494,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="401"/>
+      <c r="A7" s="409"/>
       <c r="B7" s="26" t="s">
         <v>211</v>
       </c>
@@ -5514,7 +5514,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="401"/>
+      <c r="A8" s="409"/>
       <c r="B8" s="26" t="s">
         <v>216</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="401"/>
+      <c r="A9" s="409"/>
       <c r="B9" s="26" t="s">
         <v>220</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="401"/>
+      <c r="A10" s="409"/>
       <c r="B10" s="26" t="s">
         <v>224</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="401"/>
+      <c r="A11" s="409"/>
       <c r="B11" s="26" t="s">
         <v>225</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="401"/>
+      <c r="A12" s="409"/>
       <c r="B12" s="26" t="s">
         <v>229</v>
       </c>
@@ -5614,7 +5614,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="401"/>
+      <c r="A13" s="409"/>
       <c r="B13" s="26" t="s">
         <v>234</v>
       </c>
@@ -5634,7 +5634,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="401"/>
+      <c r="A14" s="409"/>
       <c r="B14" s="26" t="s">
         <v>236</v>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="401"/>
+      <c r="A15" s="409"/>
       <c r="B15" s="26" t="s">
         <v>239</v>
       </c>
@@ -5674,7 +5674,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="401"/>
+      <c r="A16" s="409"/>
       <c r="B16" s="26" t="s">
         <v>246</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="401"/>
+      <c r="A17" s="409"/>
       <c r="B17" s="26" t="s">
         <v>249</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="401"/>
+      <c r="A18" s="409"/>
       <c r="B18" s="26" t="s">
         <v>255</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="401"/>
+      <c r="A19" s="409"/>
       <c r="B19" s="26" t="s">
         <v>256</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="401"/>
+      <c r="A20" s="409"/>
       <c r="B20" s="26" t="s">
         <v>258</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="401"/>
+      <c r="A21" s="409"/>
       <c r="B21" s="26" t="s">
         <v>266</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="401"/>
+      <c r="A22" s="409"/>
       <c r="B22" s="26" t="s">
         <v>268</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="401"/>
+      <c r="A23" s="409"/>
       <c r="B23" s="26" t="s">
         <v>271</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="401"/>
+      <c r="A24" s="409"/>
       <c r="B24" s="26" t="s">
         <v>272</v>
       </c>
@@ -5854,7 +5854,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="401"/>
+      <c r="A25" s="409"/>
       <c r="B25" s="26" t="s">
         <v>280</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="401"/>
+      <c r="A26" s="409"/>
       <c r="B26" s="26" t="s">
         <v>282</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="401"/>
+      <c r="A27" s="409"/>
       <c r="B27" s="26"/>
       <c r="C27" s="224"/>
       <c r="D27" s="224"/>
@@ -5908,7 +5908,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="401"/>
+      <c r="A28" s="409"/>
       <c r="B28" s="26"/>
       <c r="C28" s="224"/>
       <c r="D28" s="226"/>
@@ -5922,7 +5922,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="401"/>
+      <c r="A29" s="409"/>
       <c r="B29" s="26"/>
       <c r="C29" s="224"/>
       <c r="D29" s="224"/>
@@ -5936,7 +5936,7 @@
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="401"/>
+      <c r="A30" s="409"/>
       <c r="B30" s="26"/>
       <c r="C30" s="224"/>
       <c r="D30" s="224"/>
@@ -5950,7 +5950,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="401"/>
+      <c r="A31" s="409"/>
       <c r="B31" s="26"/>
       <c r="C31" s="224"/>
       <c r="D31" s="224"/>
@@ -5964,7 +5964,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="401"/>
+      <c r="A32" s="409"/>
       <c r="B32" s="26"/>
       <c r="C32" s="224"/>
       <c r="D32" s="224"/>
@@ -5978,7 +5978,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="401"/>
+      <c r="A33" s="409"/>
       <c r="B33" s="26"/>
       <c r="C33" s="224"/>
       <c r="D33" s="226"/>
@@ -5992,7 +5992,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="401"/>
+      <c r="A34" s="409"/>
       <c r="B34" s="26"/>
       <c r="C34" s="224"/>
       <c r="D34" s="224"/>
@@ -6006,7 +6006,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="401"/>
+      <c r="A35" s="409"/>
       <c r="B35" s="26"/>
       <c r="C35" s="224"/>
       <c r="D35" s="224"/>
@@ -6020,7 +6020,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="401"/>
+      <c r="A36" s="409"/>
       <c r="B36" s="26"/>
       <c r="C36" s="224"/>
       <c r="D36" s="224"/>
@@ -6034,7 +6034,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="401"/>
+      <c r="A37" s="409"/>
       <c r="B37" s="26"/>
       <c r="C37" s="224"/>
       <c r="D37" s="224"/>
@@ -6048,7 +6048,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="401"/>
+      <c r="A38" s="409"/>
       <c r="B38" s="26"/>
       <c r="C38" s="224"/>
       <c r="D38" s="224"/>
@@ -6062,7 +6062,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="401"/>
+      <c r="A39" s="409"/>
       <c r="B39" s="26"/>
       <c r="C39" s="224"/>
       <c r="D39" s="224"/>
@@ -6076,7 +6076,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="401"/>
+      <c r="A40" s="409"/>
       <c r="B40" s="26"/>
       <c r="C40" s="224"/>
       <c r="D40" s="224"/>
@@ -6090,7 +6090,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="401"/>
+      <c r="A41" s="409"/>
       <c r="B41" s="26"/>
       <c r="C41" s="224"/>
       <c r="D41" s="224"/>
@@ -6104,7 +6104,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="401"/>
+      <c r="A42" s="409"/>
       <c r="B42" s="26"/>
       <c r="C42" s="224"/>
       <c r="D42" s="224"/>
@@ -6118,7 +6118,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="401"/>
+      <c r="A43" s="409"/>
       <c r="B43" s="26"/>
       <c r="C43" s="224"/>
       <c r="D43" s="224"/>
@@ -6132,7 +6132,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="401"/>
+      <c r="A44" s="409"/>
       <c r="B44" s="26"/>
       <c r="C44" s="224"/>
       <c r="D44" s="224"/>
@@ -6146,7 +6146,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="401"/>
+      <c r="A45" s="409"/>
       <c r="B45" s="26"/>
       <c r="C45" s="224"/>
       <c r="D45" s="224"/>
@@ -6160,7 +6160,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="401"/>
+      <c r="A46" s="409"/>
       <c r="B46" s="26"/>
       <c r="C46" s="224"/>
       <c r="D46" s="224"/>
@@ -6174,7 +6174,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="401"/>
+      <c r="A47" s="409"/>
       <c r="B47" s="26"/>
       <c r="C47" s="224"/>
       <c r="D47" s="224"/>
@@ -6188,7 +6188,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="401"/>
+      <c r="A48" s="409"/>
       <c r="B48" s="26"/>
       <c r="C48" s="224"/>
       <c r="D48" s="224"/>
@@ -6202,7 +6202,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="401"/>
+      <c r="A49" s="409"/>
       <c r="B49" s="26"/>
       <c r="C49" s="224"/>
       <c r="D49" s="224"/>
@@ -6216,7 +6216,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="401"/>
+      <c r="A50" s="409"/>
       <c r="B50" s="26"/>
       <c r="C50" s="224"/>
       <c r="D50" s="224"/>
@@ -6230,7 +6230,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="401"/>
+      <c r="A51" s="409"/>
       <c r="B51" s="26"/>
       <c r="C51" s="224"/>
       <c r="D51" s="224"/>
@@ -6244,7 +6244,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="401"/>
+      <c r="A52" s="409"/>
       <c r="B52" s="26"/>
       <c r="C52" s="224"/>
       <c r="D52" s="224"/>
@@ -6258,7 +6258,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="401"/>
+      <c r="A53" s="409"/>
       <c r="B53" s="26"/>
       <c r="C53" s="224"/>
       <c r="D53" s="224"/>
@@ -6272,7 +6272,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="401"/>
+      <c r="A54" s="409"/>
       <c r="B54" s="26"/>
       <c r="C54" s="224"/>
       <c r="D54" s="224"/>
@@ -6286,7 +6286,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="401"/>
+      <c r="A55" s="409"/>
       <c r="B55" s="26"/>
       <c r="C55" s="224"/>
       <c r="D55" s="224"/>
@@ -6300,7 +6300,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="401"/>
+      <c r="A56" s="409"/>
       <c r="B56" s="26"/>
       <c r="C56" s="224"/>
       <c r="D56" s="224"/>
@@ -6314,7 +6314,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="401"/>
+      <c r="A57" s="409"/>
       <c r="B57" s="26"/>
       <c r="C57" s="224"/>
       <c r="D57" s="224"/>
@@ -6325,7 +6325,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="401"/>
+      <c r="A58" s="409"/>
       <c r="B58" s="26"/>
       <c r="C58" s="224"/>
       <c r="D58" s="224"/>
@@ -6336,7 +6336,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="401"/>
+      <c r="A59" s="409"/>
       <c r="B59" s="26"/>
       <c r="C59" s="224"/>
       <c r="D59" s="224"/>
@@ -6347,7 +6347,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="401"/>
+      <c r="A60" s="409"/>
       <c r="B60" s="26"/>
       <c r="C60" s="224"/>
       <c r="D60" s="224"/>
@@ -6358,7 +6358,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="401"/>
+      <c r="A61" s="409"/>
       <c r="B61" s="26"/>
       <c r="C61" s="224"/>
       <c r="D61" s="224"/>
@@ -6369,7 +6369,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="401"/>
+      <c r="A62" s="409"/>
       <c r="B62" s="26"/>
       <c r="C62" s="224"/>
       <c r="D62" s="224"/>
@@ -6380,7 +6380,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="401"/>
+      <c r="A63" s="409"/>
       <c r="B63" s="26"/>
       <c r="C63" s="224"/>
       <c r="D63" s="224"/>
@@ -6391,7 +6391,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="401"/>
+      <c r="A64" s="409"/>
       <c r="B64" s="26"/>
       <c r="C64" s="224"/>
       <c r="D64" s="224"/>
@@ -6402,7 +6402,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="401"/>
+      <c r="A65" s="409"/>
       <c r="B65" s="26"/>
       <c r="C65" s="224"/>
       <c r="D65" s="224"/>
@@ -6413,7 +6413,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="401"/>
+      <c r="A66" s="409"/>
       <c r="B66" s="26"/>
       <c r="C66" s="224"/>
       <c r="D66" s="224"/>
@@ -6424,7 +6424,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="401"/>
+      <c r="A67" s="409"/>
       <c r="B67" s="26"/>
       <c r="C67" s="224"/>
       <c r="D67" s="224"/>
@@ -6435,7 +6435,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="401"/>
+      <c r="A68" s="409"/>
       <c r="B68" s="26"/>
       <c r="C68" s="224"/>
       <c r="D68" s="224"/>
@@ -6446,7 +6446,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="401"/>
+      <c r="A69" s="409"/>
       <c r="B69" s="26"/>
       <c r="C69" s="224"/>
       <c r="D69" s="224"/>
@@ -6457,7 +6457,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="401"/>
+      <c r="A70" s="409"/>
       <c r="B70" s="26"/>
       <c r="C70" s="224"/>
       <c r="D70" s="224"/>
@@ -6468,7 +6468,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="401"/>
+      <c r="A71" s="409"/>
       <c r="B71" s="26"/>
       <c r="C71" s="224"/>
       <c r="D71" s="224"/>
@@ -6479,7 +6479,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="401"/>
+      <c r="A72" s="409"/>
       <c r="B72" s="26"/>
       <c r="C72" s="224"/>
       <c r="D72" s="224"/>
@@ -6490,7 +6490,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="401"/>
+      <c r="A73" s="409"/>
       <c r="B73" s="26"/>
       <c r="C73" s="224"/>
       <c r="D73" s="224"/>
@@ -6501,7 +6501,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="401"/>
+      <c r="A74" s="409"/>
       <c r="B74" s="26"/>
       <c r="C74" s="224"/>
       <c r="D74" s="224"/>
@@ -6512,7 +6512,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="401"/>
+      <c r="A75" s="409"/>
       <c r="B75" s="26"/>
       <c r="C75" s="224"/>
       <c r="D75" s="224"/>
@@ -6523,7 +6523,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="401"/>
+      <c r="A76" s="409"/>
       <c r="B76" s="26"/>
       <c r="C76" s="224"/>
       <c r="D76" s="224"/>
@@ -6534,7 +6534,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="401"/>
+      <c r="A77" s="409"/>
       <c r="B77" s="26"/>
       <c r="C77" s="224"/>
       <c r="D77" s="224"/>
@@ -6545,7 +6545,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="401"/>
+      <c r="A78" s="409"/>
       <c r="B78" s="26"/>
       <c r="C78" s="224"/>
       <c r="D78" s="224"/>
@@ -6556,7 +6556,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="401"/>
+      <c r="A79" s="409"/>
       <c r="B79" s="26"/>
       <c r="C79" s="224"/>
       <c r="D79" s="224"/>
@@ -6568,7 +6568,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="401"/>
+      <c r="A80" s="409"/>
       <c r="B80" s="26"/>
       <c r="C80" s="224"/>
       <c r="D80" s="224"/>
@@ -6580,7 +6580,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="401"/>
+      <c r="A81" s="409"/>
       <c r="B81" s="26"/>
       <c r="C81" s="224"/>
       <c r="D81" s="224"/>
@@ -6592,7 +6592,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="401"/>
+      <c r="A82" s="409"/>
       <c r="B82" s="26"/>
       <c r="C82" s="224"/>
       <c r="D82" s="224"/>
@@ -6604,7 +6604,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="401"/>
+      <c r="A83" s="409"/>
       <c r="B83" s="31"/>
       <c r="C83" s="225">
         <f>SUM(C5:C72)</f>
@@ -6667,67 +6667,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="414" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="406"/>
-      <c r="P1" s="406"/>
-      <c r="Q1" s="406"/>
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="414"/>
+      <c r="G1" s="414"/>
+      <c r="H1" s="414"/>
+      <c r="I1" s="414"/>
+      <c r="J1" s="414"/>
+      <c r="K1" s="414"/>
+      <c r="L1" s="414"/>
+      <c r="M1" s="414"/>
+      <c r="N1" s="414"/>
+      <c r="O1" s="414"/>
+      <c r="P1" s="414"/>
+      <c r="Q1" s="414"/>
     </row>
     <row r="2" spans="1:24" s="60" customFormat="1" ht="18">
-      <c r="A2" s="407" t="s">
+      <c r="A2" s="415" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="407"/>
-      <c r="C2" s="407"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="407"/>
-      <c r="F2" s="407"/>
-      <c r="G2" s="407"/>
-      <c r="H2" s="407"/>
-      <c r="I2" s="407"/>
-      <c r="J2" s="407"/>
-      <c r="K2" s="407"/>
-      <c r="L2" s="407"/>
-      <c r="M2" s="407"/>
-      <c r="N2" s="407"/>
-      <c r="O2" s="407"/>
-      <c r="P2" s="407"/>
-      <c r="Q2" s="407"/>
+      <c r="B2" s="415"/>
+      <c r="C2" s="415"/>
+      <c r="D2" s="415"/>
+      <c r="E2" s="415"/>
+      <c r="F2" s="415"/>
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="415"/>
+      <c r="K2" s="415"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="415"/>
+      <c r="N2" s="415"/>
+      <c r="O2" s="415"/>
+      <c r="P2" s="415"/>
+      <c r="Q2" s="415"/>
     </row>
     <row r="3" spans="1:24" s="61" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="408" t="s">
+      <c r="A3" s="416" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="409"/>
-      <c r="C3" s="409"/>
-      <c r="D3" s="409"/>
-      <c r="E3" s="409"/>
-      <c r="F3" s="409"/>
-      <c r="G3" s="409"/>
-      <c r="H3" s="409"/>
-      <c r="I3" s="409"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="409"/>
-      <c r="M3" s="409"/>
-      <c r="N3" s="409"/>
-      <c r="O3" s="409"/>
-      <c r="P3" s="409"/>
-      <c r="Q3" s="410"/>
+      <c r="B3" s="417"/>
+      <c r="C3" s="417"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="417"/>
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="417"/>
+      <c r="M3" s="417"/>
+      <c r="N3" s="417"/>
+      <c r="O3" s="417"/>
+      <c r="P3" s="417"/>
+      <c r="Q3" s="418"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6736,52 +6736,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="411" t="s">
+      <c r="A4" s="419" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="413" t="s">
+      <c r="B4" s="421" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="402" t="s">
+      <c r="C4" s="410" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="402" t="s">
+      <c r="D4" s="410" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="402" t="s">
+      <c r="E4" s="410" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="402" t="s">
+      <c r="F4" s="410" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="402" t="s">
+      <c r="G4" s="410" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="402" t="s">
+      <c r="H4" s="410" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="402" t="s">
+      <c r="I4" s="410" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="402" t="s">
+      <c r="J4" s="410" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="402" t="s">
+      <c r="K4" s="410" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="402" t="s">
+      <c r="L4" s="410" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="402" t="s">
+      <c r="M4" s="410" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="402" t="s">
+      <c r="N4" s="410" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="404" t="s">
+      <c r="O4" s="412" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="415" t="s">
+      <c r="P4" s="423" t="s">
         <v>259</v>
       </c>
       <c r="Q4" s="117" t="s">
@@ -6794,22 +6794,22 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="412"/>
-      <c r="B5" s="414"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="403"/>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="403"/>
-      <c r="J5" s="403"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="403"/>
-      <c r="N5" s="403"/>
-      <c r="O5" s="405"/>
-      <c r="P5" s="416"/>
+      <c r="A5" s="420"/>
+      <c r="B5" s="422"/>
+      <c r="C5" s="411"/>
+      <c r="D5" s="411"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="411"/>
+      <c r="G5" s="411"/>
+      <c r="H5" s="411"/>
+      <c r="I5" s="411"/>
+      <c r="J5" s="411"/>
+      <c r="K5" s="411"/>
+      <c r="L5" s="411"/>
+      <c r="M5" s="411"/>
+      <c r="N5" s="411"/>
+      <c r="O5" s="413"/>
+      <c r="P5" s="424"/>
       <c r="Q5" s="118" t="s">
         <v>36</v>
       </c>
@@ -9877,6 +9877,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9893,9 +9896,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9935,14 +9935,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="422" t="s">
+      <c r="A1" s="430" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="423"/>
-      <c r="C1" s="423"/>
-      <c r="D1" s="423"/>
-      <c r="E1" s="423"/>
-      <c r="F1" s="424"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="432"/>
       <c r="G1" s="55"/>
       <c r="H1" s="134"/>
       <c r="I1" s="134"/>
@@ -10035,14 +10035,14 @@
       <c r="CR1" s="129"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="425" t="s">
+      <c r="A2" s="433" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="426"/>
-      <c r="C2" s="426"/>
-      <c r="D2" s="426"/>
-      <c r="E2" s="426"/>
-      <c r="F2" s="427"/>
+      <c r="B2" s="434"/>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="434"/>
+      <c r="F2" s="435"/>
       <c r="G2" s="55"/>
       <c r="H2" s="134"/>
       <c r="I2" s="134"/>
@@ -10135,14 +10135,14 @@
       <c r="CR2" s="129"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="428" t="s">
+      <c r="A3" s="436" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="429"/>
-      <c r="C3" s="429"/>
-      <c r="D3" s="429"/>
-      <c r="E3" s="429"/>
-      <c r="F3" s="430"/>
+      <c r="B3" s="437"/>
+      <c r="C3" s="437"/>
+      <c r="D3" s="437"/>
+      <c r="E3" s="437"/>
+      <c r="F3" s="438"/>
       <c r="G3" s="55"/>
       <c r="H3" s="134"/>
       <c r="I3" s="134"/>
@@ -13563,12 +13563,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="124"/>
-      <c r="B35" s="419" t="s">
+      <c r="B35" s="427" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="419"/>
-      <c r="D35" s="419"/>
-      <c r="E35" s="419"/>
+      <c r="C35" s="427"/>
+      <c r="D35" s="427"/>
+      <c r="E35" s="427"/>
       <c r="F35" s="125"/>
       <c r="G35" s="130"/>
       <c r="H35" s="131"/>
@@ -14435,9 +14435,9 @@
         <v>280</v>
       </c>
       <c r="F43" s="125"/>
-      <c r="G43" s="420"/>
-      <c r="H43" s="420"/>
-      <c r="I43" s="420"/>
+      <c r="G43" s="428"/>
+      <c r="H43" s="428"/>
+      <c r="I43" s="428"/>
       <c r="J43" s="55"/>
       <c r="K43" s="134"/>
       <c r="L43" s="55"/>
@@ -15878,7 +15878,7 @@
     </row>
     <row r="56" spans="1:96">
       <c r="A56" s="393"/>
-      <c r="B56" s="476" t="s">
+      <c r="B56" s="400" t="s">
         <v>294</v>
       </c>
       <c r="C56" s="383" t="s">
@@ -19639,7 +19639,7 @@
       <c r="CR89" s="129"/>
     </row>
     <row r="90" spans="1:96">
-      <c r="A90" s="474" t="s">
+      <c r="A90" s="398" t="s">
         <v>286</v>
       </c>
       <c r="B90" s="261" t="s">
@@ -19746,7 +19746,7 @@
       <c r="CR90" s="129"/>
     </row>
     <row r="91" spans="1:96">
-      <c r="A91" s="474" t="s">
+      <c r="A91" s="398" t="s">
         <v>288</v>
       </c>
       <c r="B91" s="261" t="s">
@@ -20070,7 +20070,7 @@
       <c r="A94" s="260" t="s">
         <v>292</v>
       </c>
-      <c r="B94" s="475" t="s">
+      <c r="B94" s="399" t="s">
         <v>293</v>
       </c>
       <c r="C94" s="262">
@@ -22598,11 +22598,11 @@
       <c r="CR118" s="129"/>
     </row>
     <row r="119" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A119" s="417" t="s">
+      <c r="A119" s="425" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="418"/>
-      <c r="C119" s="421"/>
+      <c r="B119" s="426"/>
+      <c r="C119" s="429"/>
       <c r="D119" s="201">
         <f>SUM(D37:D118)</f>
         <v>5575557</v>
@@ -22806,11 +22806,11 @@
       <c r="CR120" s="129"/>
     </row>
     <row r="121" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A121" s="417" t="s">
+      <c r="A121" s="425" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="418"/>
-      <c r="C121" s="418"/>
+      <c r="B121" s="426"/>
+      <c r="C121" s="426"/>
       <c r="D121" s="201">
         <f>D119+L121</f>
         <v>5575557</v>
@@ -33915,7 +33915,7 @@
   </sheetPr>
   <dimension ref="A1:R215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -33942,28 +33942,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="431" t="s">
+      <c r="A1" s="456" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
-      <c r="E1" s="433"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="458"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="446"/>
-      <c r="J1" s="446"/>
-      <c r="K1" s="446"/>
+      <c r="I1" s="451"/>
+      <c r="J1" s="451"/>
+      <c r="K1" s="451"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="440" t="s">
+      <c r="A2" s="465" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="441"/>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="442"/>
+      <c r="B2" s="466"/>
+      <c r="C2" s="466"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="467"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33984,13 +33984,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="459" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="435"/>
-      <c r="C3" s="435"/>
-      <c r="D3" s="435"/>
-      <c r="E3" s="436"/>
+      <c r="B3" s="460"/>
+      <c r="C3" s="460"/>
+      <c r="D3" s="460"/>
+      <c r="E3" s="461"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -34017,13 +34017,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="443" t="s">
+      <c r="A4" s="468" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="444"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="444"/>
-      <c r="E4" s="445"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
+      <c r="D4" s="469"/>
+      <c r="E4" s="470"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -34509,11 +34509,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="277"/>
-      <c r="I17" s="447" t="s">
+      <c r="I17" s="444" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="447"/>
-      <c r="K17" s="447"/>
+      <c r="J17" s="444"/>
+      <c r="K17" s="444"/>
       <c r="L17" s="306">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -34536,11 +34536,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="277"/>
-      <c r="I18" s="448" t="s">
+      <c r="I18" s="452" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="448"/>
-      <c r="K18" s="448"/>
+      <c r="J18" s="452"/>
+      <c r="K18" s="452"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -34552,21 +34552,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="437" t="s">
+      <c r="A19" s="462" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="438"/>
-      <c r="C19" s="438"/>
-      <c r="D19" s="438"/>
-      <c r="E19" s="439"/>
+      <c r="B19" s="463"/>
+      <c r="C19" s="463"/>
+      <c r="D19" s="463"/>
+      <c r="E19" s="464"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="455" t="s">
+      <c r="I19" s="447" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="455"/>
-      <c r="K19" s="455"/>
+      <c r="J19" s="447"/>
+      <c r="K19" s="447"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34594,11 +34594,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="449" t="s">
+      <c r="I20" s="440" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="449"/>
-      <c r="K20" s="449"/>
+      <c r="J20" s="440"/>
+      <c r="K20" s="440"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34625,11 +34625,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="450" t="s">
+      <c r="I21" s="453" t="s">
         <v>160</v>
       </c>
-      <c r="J21" s="451"/>
-      <c r="K21" s="452"/>
+      <c r="J21" s="454"/>
+      <c r="K21" s="455"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34654,11 +34654,11 @@
       <c r="E22" s="242">
         <v>366037</v>
       </c>
-      <c r="I22" s="455" t="s">
+      <c r="I22" s="447" t="s">
         <v>163</v>
       </c>
-      <c r="J22" s="455"/>
-      <c r="K22" s="455"/>
+      <c r="J22" s="447"/>
+      <c r="K22" s="447"/>
       <c r="L22" s="335">
         <v>20000</v>
       </c>
@@ -34683,11 +34683,11 @@
       <c r="E23" s="242">
         <v>537194</v>
       </c>
-      <c r="I23" s="456" t="s">
+      <c r="I23" s="441" t="s">
         <v>184</v>
       </c>
-      <c r="J23" s="457"/>
-      <c r="K23" s="458"/>
+      <c r="J23" s="442"/>
+      <c r="K23" s="443"/>
       <c r="L23" s="335">
         <v>40000</v>
       </c>
@@ -34712,11 +34712,11 @@
       <c r="E24" s="298">
         <v>495242</v>
       </c>
-      <c r="I24" s="455" t="s">
+      <c r="I24" s="447" t="s">
         <v>223</v>
       </c>
-      <c r="J24" s="455"/>
-      <c r="K24" s="455"/>
+      <c r="J24" s="447"/>
+      <c r="K24" s="447"/>
       <c r="L24" s="320">
         <v>30000</v>
       </c>
@@ -34741,11 +34741,11 @@
       <c r="E25" s="242">
         <v>96565</v>
       </c>
-      <c r="I25" s="455" t="s">
+      <c r="I25" s="447" t="s">
         <v>281</v>
       </c>
-      <c r="J25" s="455"/>
-      <c r="K25" s="455"/>
+      <c r="J25" s="447"/>
+      <c r="K25" s="447"/>
       <c r="L25" s="320">
         <v>20000</v>
       </c>
@@ -34770,11 +34770,11 @@
       <c r="E26" s="348">
         <v>61308</v>
       </c>
-      <c r="I26" s="447" t="s">
+      <c r="I26" s="444" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="447"/>
-      <c r="K26" s="447"/>
+      <c r="J26" s="444"/>
+      <c r="K26" s="444"/>
       <c r="L26" s="306">
         <f>L17-L18-L19-L20-L21-L22-L23-L24-L25</f>
         <v>78150</v>
@@ -34820,13 +34820,13 @@
       <c r="E28" s="242">
         <v>31230</v>
       </c>
-      <c r="I28" s="459" t="s">
+      <c r="I28" s="448" t="s">
         <v>232</v>
       </c>
-      <c r="J28" s="460"/>
-      <c r="K28" s="460"/>
-      <c r="L28" s="460"/>
-      <c r="M28" s="461"/>
+      <c r="J28" s="449"/>
+      <c r="K28" s="449"/>
+      <c r="L28" s="449"/>
+      <c r="M28" s="450"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="243" t="s">
@@ -34842,11 +34842,11 @@
       <c r="E29" s="242">
         <v>30000</v>
       </c>
-      <c r="I29" s="453" t="s">
+      <c r="I29" s="445" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="453"/>
-      <c r="K29" s="454"/>
+      <c r="J29" s="445"/>
+      <c r="K29" s="446"/>
       <c r="L29" s="355">
         <v>213170</v>
       </c>
@@ -34892,11 +34892,11 @@
       <c r="C31" s="114"/>
       <c r="D31" s="233"/>
       <c r="E31" s="242"/>
-      <c r="I31" s="462" t="s">
+      <c r="I31" s="439" t="s">
         <v>155</v>
       </c>
-      <c r="J31" s="449"/>
-      <c r="K31" s="449"/>
+      <c r="J31" s="440"/>
+      <c r="K31" s="440"/>
       <c r="L31" s="353">
         <v>79500</v>
       </c>
@@ -34910,24 +34910,24 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="22.5" thickBot="1">
-      <c r="A32" s="477" t="s">
+      <c r="A32" s="401" t="s">
         <v>265</v>
       </c>
-      <c r="B32" s="478">
+      <c r="B32" s="402">
         <v>496960</v>
       </c>
-      <c r="C32" s="479"/>
-      <c r="D32" s="480" t="s">
+      <c r="C32" s="403"/>
+      <c r="D32" s="404" t="s">
         <v>279</v>
       </c>
-      <c r="E32" s="481">
+      <c r="E32" s="405">
         <v>370800</v>
       </c>
-      <c r="I32" s="462" t="s">
+      <c r="I32" s="439" t="s">
         <v>155</v>
       </c>
-      <c r="J32" s="449"/>
-      <c r="K32" s="449"/>
+      <c r="J32" s="440"/>
+      <c r="K32" s="440"/>
       <c r="L32" s="353">
         <v>47500</v>
       </c>
@@ -34946,11 +34946,11 @@
       <c r="C33" s="5"/>
       <c r="D33" s="367"/>
       <c r="E33" s="368"/>
-      <c r="I33" s="462" t="s">
+      <c r="I33" s="439" t="s">
         <v>155</v>
       </c>
-      <c r="J33" s="449"/>
-      <c r="K33" s="449"/>
+      <c r="J33" s="440"/>
+      <c r="K33" s="440"/>
       <c r="L33" s="353">
         <v>50000</v>
       </c>
@@ -34969,9 +34969,9 @@
       <c r="C34" s="5"/>
       <c r="D34" s="367"/>
       <c r="E34" s="368"/>
-      <c r="I34" s="456"/>
-      <c r="J34" s="457"/>
-      <c r="K34" s="458"/>
+      <c r="I34" s="441"/>
+      <c r="J34" s="442"/>
+      <c r="K34" s="443"/>
       <c r="L34" s="353"/>
       <c r="M34" s="353"/>
       <c r="N34" s="7"/>
@@ -34981,11 +34981,11 @@
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" ht="15.75">
-      <c r="I35" s="447" t="s">
+      <c r="I35" s="444" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="447"/>
-      <c r="K35" s="447"/>
+      <c r="J35" s="444"/>
+      <c r="K35" s="444"/>
       <c r="L35" s="352">
         <f>L29-L31-L32-L33-L34</f>
         <v>36170</v>
@@ -37655,11 +37655,16 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -37668,16 +37673,11 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -37711,10 +37711,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="471" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="464"/>
+      <c r="B1" s="472"/>
       <c r="C1" s="246">
         <f>C73+G13+E1</f>
         <v>228500</v>
@@ -37760,11 +37760,11 @@
       <c r="H3" s="371" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="467" t="s">
+      <c r="J3" s="475" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="467"/>
-      <c r="L3" s="467"/>
+      <c r="K3" s="475"/>
+      <c r="L3" s="475"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="24" t="s">
@@ -38108,11 +38108,11 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="60"/>
-      <c r="F16" s="471" t="s">
+      <c r="F16" s="479" t="s">
         <v>262</v>
       </c>
-      <c r="G16" s="472"/>
-      <c r="H16" s="473"/>
+      <c r="G16" s="480"/>
+      <c r="H16" s="481"/>
       <c r="J16" s="309" t="s">
         <v>124</v>
       </c>
@@ -38135,11 +38135,11 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="217"/>
-      <c r="F17" s="468" t="s">
+      <c r="F17" s="476" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="469"/>
-      <c r="H17" s="470"/>
+      <c r="G17" s="477"/>
+      <c r="H17" s="478"/>
       <c r="J17" s="309" t="s">
         <v>123</v>
       </c>
@@ -38792,10 +38792,10 @@
       <c r="E72" s="291"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="465" t="s">
+      <c r="A73" s="473" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="466"/>
+      <c r="B73" s="474"/>
       <c r="C73" s="275">
         <f>SUM(C4:C72)</f>
         <v>146100</v>
